--- a/krpai2020/New 2/Sesi 2/automatic calibration calculator.xlsx
+++ b/krpai2020/New 2/Sesi 2/automatic calibration calculator.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tirtapod\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lazy_Panda\Documents\GitHub\New 2\Sesi 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -510,7 +510,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,10 +603,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="1">
-        <v>1400</v>
+        <v>1450</v>
       </c>
       <c r="C4" s="1">
-        <v>1500</v>
+        <v>1550</v>
       </c>
       <c r="D4" s="1">
         <v>1500</v>
@@ -626,11 +626,11 @@
       </c>
       <c r="I4" s="1">
         <f>C4</f>
-        <v>1500</v>
+        <v>1550</v>
       </c>
       <c r="J4" s="1">
         <f>E4-2*(E4-B4)</f>
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="K4" s="1">
         <f>D4-G4</f>
@@ -638,11 +638,11 @@
       </c>
       <c r="L4" s="1">
         <f>F4-C4</f>
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="M4" s="1">
         <f>E4-B4</f>
-        <v>-500</v>
+        <v>-550</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -650,22 +650,22 @@
         <v>2</v>
       </c>
       <c r="B5" s="1">
-        <v>1450</v>
+        <v>1400</v>
       </c>
       <c r="C5" s="1">
+        <v>1600</v>
+      </c>
+      <c r="D5" s="1">
         <v>1550</v>
       </c>
-      <c r="D5" s="1">
-        <v>1450</v>
-      </c>
       <c r="E5" s="1">
-        <v>950</v>
+        <v>1000</v>
       </c>
       <c r="F5" s="1">
-        <v>2050</v>
+        <v>2070</v>
       </c>
       <c r="G5" s="1">
-        <v>1950</v>
+        <v>2000</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" ref="H5:H9" si="0">D5-2*(D5-G5)</f>
@@ -673,23 +673,23 @@
       </c>
       <c r="I5" s="1">
         <f t="shared" ref="I5:I9" si="1">C5</f>
-        <v>1550</v>
+        <v>1600</v>
       </c>
       <c r="J5" s="1">
         <f>B5</f>
-        <v>1450</v>
+        <v>1400</v>
       </c>
       <c r="K5" s="1">
         <f t="shared" ref="K5:K9" si="2">D5-G5</f>
-        <v>-500</v>
+        <v>-450</v>
       </c>
       <c r="L5" s="1">
         <f t="shared" ref="L5:L9" si="3">F5-C5</f>
-        <v>500</v>
+        <v>470</v>
       </c>
       <c r="M5" s="1">
         <f>E5-B5</f>
-        <v>-500</v>
+        <v>-400</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -697,22 +697,22 @@
         <v>3</v>
       </c>
       <c r="B6" s="1">
-        <v>1450</v>
+        <v>1400</v>
       </c>
       <c r="C6" s="1">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="D6" s="1">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="E6" s="1">
         <v>950</v>
       </c>
       <c r="F6" s="1">
-        <v>2000</v>
+        <v>1850</v>
       </c>
       <c r="G6" s="1">
-        <v>2000</v>
+        <v>2050</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" si="0"/>
@@ -720,7 +720,7 @@
       </c>
       <c r="I6" s="1">
         <f t="shared" si="1"/>
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="J6" s="1">
         <f>E6</f>
@@ -728,15 +728,15 @@
       </c>
       <c r="K6" s="1">
         <f t="shared" si="2"/>
-        <v>-500</v>
+        <v>-450</v>
       </c>
       <c r="L6" s="1">
         <f t="shared" si="3"/>
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="M6" s="1">
         <f>B6-E6</f>
-        <v>500</v>
+        <v>450</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -750,20 +750,20 @@
         <v>1400</v>
       </c>
       <c r="D7" s="1">
-        <v>1400</v>
+        <v>1380</v>
       </c>
       <c r="E7" s="1">
         <v>2000</v>
       </c>
       <c r="F7" s="1">
-        <v>900</v>
+        <v>940</v>
       </c>
       <c r="G7" s="1">
         <v>900</v>
       </c>
       <c r="H7" s="1">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>420</v>
       </c>
       <c r="I7" s="1">
         <f t="shared" si="1"/>
@@ -775,11 +775,11 @@
       </c>
       <c r="K7" s="1">
         <f t="shared" si="2"/>
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="L7" s="1">
         <f t="shared" si="3"/>
-        <v>-500</v>
+        <v>-460</v>
       </c>
       <c r="M7" s="1">
         <f>E7-B7</f>
@@ -791,26 +791,26 @@
         <v>5</v>
       </c>
       <c r="B8" s="1">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="C8" s="1">
         <v>1500</v>
       </c>
       <c r="D8" s="1">
-        <v>1300</v>
+        <v>1280</v>
       </c>
       <c r="E8" s="1">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="F8" s="1">
-        <v>1000</v>
+        <v>1040</v>
       </c>
       <c r="G8" s="1">
         <v>800</v>
       </c>
       <c r="H8" s="1">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="I8" s="1">
         <f t="shared" si="1"/>
@@ -818,15 +818,15 @@
       </c>
       <c r="J8" s="1">
         <f>B8</f>
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K8" s="1">
         <f t="shared" si="2"/>
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="L8" s="1">
         <f t="shared" si="3"/>
-        <v>-500</v>
+        <v>-460</v>
       </c>
       <c r="M8" s="1">
         <f>E8-B8</f>
@@ -838,7 +838,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="C9" s="1">
         <v>1400</v>
@@ -847,17 +847,17 @@
         <v>1400</v>
       </c>
       <c r="E9" s="1">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="F9" s="1">
         <v>900</v>
       </c>
       <c r="G9" s="1">
-        <v>900</v>
+        <v>850</v>
       </c>
       <c r="H9" s="1">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I9" s="1">
         <f t="shared" si="1"/>
@@ -865,11 +865,11 @@
       </c>
       <c r="J9" s="1">
         <f>E9</f>
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="K9" s="1">
         <f t="shared" si="2"/>
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L9" s="1">
         <f t="shared" si="3"/>
